--- a/larray/tests/data/test_narrow.xlsx
+++ b/larray/tests/data/test_narrow.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BE8BD-F348-407B-B15F-8AADD81DCB78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12705" activeTab="3" xr2:uid="{270B16EB-FB0E-421A-9535-B06B3FE5D8EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12705" activeTab="5" xr2:uid="{270B16EB-FB0E-421A-9535-B06B3FE5D8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="1d" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="3d" sheetId="3" r:id="rId3"/>
     <sheet name="missing_values" sheetId="5" r:id="rId4"/>
     <sheet name="unsorted" sheetId="6" r:id="rId5"/>
+    <sheet name="position" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -555,7 +557,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B728F1-EB87-4F06-B35C-D6DB96354811}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1293,4 +1295,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31509180-2AD3-429A-9E08-0D84161820BE}">
+  <dimension ref="D3:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/larray/tests/data/test_narrow.xlsx
+++ b/larray/tests/data/test_narrow.xlsx
@@ -1,36 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BE8BD-F348-407B-B15F-8AADD81DCB78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB2D060-F92B-4449-A9B0-3FCC49E6B8A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12705" activeTab="5" xr2:uid="{270B16EB-FB0E-421A-9535-B06B3FE5D8EE}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12735" activeTab="7" xr2:uid="{F6C94149-5F29-41B7-AFC7-5073AF3A67EB}"/>
   </bookViews>
   <sheets>
     <sheet name="1d" sheetId="1" r:id="rId1"/>
     <sheet name="2d" sheetId="2" r:id="rId2"/>
-    <sheet name="3d" sheetId="3" r:id="rId3"/>
-    <sheet name="missing_values" sheetId="5" r:id="rId4"/>
-    <sheet name="unsorted" sheetId="6" r:id="rId5"/>
-    <sheet name="position" sheetId="7" r:id="rId6"/>
+    <sheet name="2d_classic" sheetId="3" r:id="rId3"/>
+    <sheet name="3d" sheetId="4" r:id="rId4"/>
+    <sheet name="int_labels" sheetId="5" r:id="rId5"/>
+    <sheet name="missing_values" sheetId="6" r:id="rId6"/>
+    <sheet name="unsorted" sheetId="7" r:id="rId7"/>
+    <sheet name="position" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="13">
   <si>
     <t>a</t>
   </si>
@@ -54,6 +62,9 @@
   </si>
   <si>
     <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
   </si>
   <si>
     <t>c</t>
@@ -416,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0132191C-99D8-4B17-B6C2-CFF60CDB7EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004A645D-A903-4CBF-9E87-F3340FB788D1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -461,12 +472,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E409FE9-4F0A-4F76-A8F6-28D78256AA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176C2220-B38D-4362-AAB1-4E9BC59E8850}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -553,16 +562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50F9164-AE49-4558-B478-60577FF8025F}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E200E06D-2987-48FD-962D-6C9155456742}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,262 +577,106 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
+      <c r="C10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -834,12 +685,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B728F1-EB87-4F06-B35C-D6DB96354811}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE37DFD-C829-4CB0-949A-7397BF28FF2C}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -851,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -865,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -879,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -893,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -907,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -921,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -935,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -946,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,55 +809,153 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1017,12 +964,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFC2D-62B2-414F-95C1-0C8D8DC2BF1D}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4769B4BA-C2E9-41EC-9425-E7684DD72DC1}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1034,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1042,13 +987,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1056,13 +1001,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1070,13 +1015,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1084,13 +1029,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1098,13 +1043,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1112,13 +1057,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1126,13 +1071,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1140,13 +1085,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1154,13 +1099,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1168,13 +1113,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1182,13 +1127,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1196,13 +1141,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -1212,11 +1157,11 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -1226,11 +1171,11 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -1240,11 +1185,11 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -1254,11 +1199,11 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1268,11 +1213,11 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -1282,14 +1227,140 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1298,12 +1369,470 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31509180-2AD3-429A-9E08-0D84161820BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8020C985-C287-4D8E-B905-791D87FE325B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E684F1-F633-4D94-A55E-745F65788F83}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C78BC7-EE33-4DE3-A62B-719EE109996F}">
   <dimension ref="D3:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1315,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1329,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1343,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1357,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1371,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1385,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1399,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1413,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1427,7 +1956,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1441,7 +1970,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1455,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -1469,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1483,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1497,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -1511,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -1525,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1539,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1553,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1567,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>17</v>
